--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\graph-coloring-algorithms-comparation\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\graph-coloring-algorithms-comparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F62BAB7-20DB-4AD6-9162-0EEB635FE155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2F6EF2-BC89-40D7-BCF9-2FE6CFD423B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ABC-Neigh" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>PAZ</t>
   </si>
@@ -99,12 +100,45 @@
   <si>
     <t>urednione 1000 pomiarów - wierzchołki w losowej kolejnoci</t>
   </si>
+  <si>
+    <t>EmployeeBeesSize</t>
+  </si>
+  <si>
+    <t>EmployeeBeesNeighborhoodSize</t>
+  </si>
+  <si>
+    <t>OnLookerBeesSize</t>
+  </si>
+  <si>
+    <t>OnLookerBeesNeighborhoodSize</t>
+  </si>
+  <si>
+    <t>OnLookerBeesFavouredSolutionsNumber</t>
+  </si>
+  <si>
+    <t>ScoutBeesSize</t>
+  </si>
+  <si>
+    <t>MaxCycles</t>
+  </si>
+  <si>
+    <t>GraphId</t>
+  </si>
+  <si>
+    <t>NumberOfColors</t>
+  </si>
+  <si>
+    <t>TimeInMiliseconds</t>
+  </si>
+  <si>
+    <t>NALEPSZA WARTOŚĆ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +146,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +165,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -145,16 +191,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,18 +483,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>20</v>
       </c>
@@ -458,7 +507,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -564,7 +613,7 @@
         <v>16.603000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -586,7 +635,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -608,7 +657,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -663,7 +712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -718,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -773,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -828,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -883,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -938,7 +987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -993,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1048,7 +1097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1103,7 +1152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J14">
         <v>23</v>
       </c>
@@ -1138,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J15">
         <v>21</v>
       </c>
@@ -1173,7 +1222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>23</v>
       </c>
@@ -1208,7 +1257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>21</v>
       </c>
@@ -1243,7 +1292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>22</v>
       </c>
@@ -1278,7 +1327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J19">
         <v>21</v>
       </c>
@@ -1313,7 +1362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>21</v>
       </c>
@@ -1348,7 +1397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>21</v>
       </c>
@@ -1383,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J22">
         <v>22</v>
       </c>
@@ -1418,7 +1467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>23</v>
       </c>
@@ -1453,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>21</v>
       </c>
@@ -1488,7 +1537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J25">
         <v>23</v>
       </c>
@@ -1523,7 +1572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J26">
         <v>21</v>
       </c>
@@ -1558,7 +1607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J27">
         <v>21</v>
       </c>
@@ -1593,7 +1642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>22</v>
       </c>
@@ -1628,7 +1677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>22</v>
       </c>
@@ -1663,7 +1712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J30">
         <v>22</v>
       </c>
@@ -1698,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>21</v>
       </c>
@@ -1733,7 +1782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J32">
         <v>21</v>
       </c>
@@ -1768,7 +1817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J33">
         <v>23</v>
       </c>
@@ -1803,7 +1852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J34">
         <v>22</v>
       </c>
@@ -1838,7 +1887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J35">
         <v>21</v>
       </c>
@@ -1873,7 +1922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J36">
         <v>21</v>
       </c>
@@ -1908,7 +1957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J37">
         <v>21</v>
       </c>
@@ -1943,7 +1992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J38">
         <v>20</v>
       </c>
@@ -1978,7 +2027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J39">
         <v>22</v>
       </c>
@@ -2013,7 +2062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J40">
         <v>21</v>
       </c>
@@ -2048,7 +2097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J41">
         <v>21</v>
       </c>
@@ -2083,7 +2132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J42">
         <v>22</v>
       </c>
@@ -2118,7 +2167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J43">
         <v>22</v>
       </c>
@@ -2153,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J44">
         <v>22</v>
       </c>
@@ -2188,7 +2237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J45">
         <v>21</v>
       </c>
@@ -2223,7 +2272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J46">
         <v>22</v>
       </c>
@@ -2258,7 +2307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J47">
         <v>21</v>
       </c>
@@ -2293,7 +2342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J48">
         <v>21</v>
       </c>
@@ -2328,7 +2377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J49">
         <v>22</v>
       </c>
@@ -2363,7 +2412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J50">
         <v>21</v>
       </c>
@@ -2398,7 +2447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J51">
         <v>23</v>
       </c>
@@ -2433,7 +2482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J52">
         <v>21</v>
       </c>
@@ -2468,7 +2517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J53">
         <v>21</v>
       </c>
@@ -2503,7 +2552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J54">
         <v>22</v>
       </c>
@@ -2538,7 +2587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J55">
         <v>21</v>
       </c>
@@ -2573,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J56">
         <v>23</v>
       </c>
@@ -2608,7 +2657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J57">
         <v>22</v>
       </c>
@@ -2643,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J58">
         <v>22</v>
       </c>
@@ -2678,7 +2727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J59">
         <v>23</v>
       </c>
@@ -2713,7 +2762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J60">
         <v>22</v>
       </c>
@@ -2748,7 +2797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J61">
         <v>22</v>
       </c>
@@ -2783,7 +2832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J62">
         <v>22</v>
       </c>
@@ -2818,7 +2867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J63">
         <v>22</v>
       </c>
@@ -2853,7 +2902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J64">
         <v>22</v>
       </c>
@@ -2888,7 +2937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J65">
         <v>21</v>
       </c>
@@ -2923,7 +2972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J66">
         <v>21</v>
       </c>
@@ -2958,7 +3007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J67">
         <v>21</v>
       </c>
@@ -2993,7 +3042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="68" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J68">
         <v>22</v>
       </c>
@@ -3028,7 +3077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="69" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J69">
         <v>22</v>
       </c>
@@ -3063,7 +3112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="70" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J70">
         <v>22</v>
       </c>
@@ -3098,7 +3147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="71" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J71">
         <v>22</v>
       </c>
@@ -3133,7 +3182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="72" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J72">
         <v>21</v>
       </c>
@@ -3168,7 +3217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="73" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J73">
         <v>22</v>
       </c>
@@ -3203,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="74" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J74">
         <v>21</v>
       </c>
@@ -3238,7 +3287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="75" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J75">
         <v>22</v>
       </c>
@@ -3273,7 +3322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="76" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J76">
         <v>21</v>
       </c>
@@ -3308,7 +3357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="77" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J77">
         <v>22</v>
       </c>
@@ -3343,7 +3392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="78" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J78">
         <v>21</v>
       </c>
@@ -3378,7 +3427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="79" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J79">
         <v>21</v>
       </c>
@@ -3413,7 +3462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="80" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J80">
         <v>21</v>
       </c>
@@ -3448,7 +3497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="81" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J81">
         <v>22</v>
       </c>
@@ -3483,7 +3532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="82" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J82">
         <v>22</v>
       </c>
@@ -3518,7 +3567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="83" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J83">
         <v>22</v>
       </c>
@@ -3553,7 +3602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="84" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J84">
         <v>21</v>
       </c>
@@ -3588,7 +3637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J85">
         <v>21</v>
       </c>
@@ -3623,7 +3672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J86">
         <v>21</v>
       </c>
@@ -3658,7 +3707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J87">
         <v>21</v>
       </c>
@@ -3693,7 +3742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J88">
         <v>22</v>
       </c>
@@ -3728,7 +3777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J89">
         <v>21</v>
       </c>
@@ -3763,7 +3812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J90">
         <v>22</v>
       </c>
@@ -3798,7 +3847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J91">
         <v>21</v>
       </c>
@@ -3833,7 +3882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J92">
         <v>22</v>
       </c>
@@ -3868,7 +3917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J93">
         <v>21</v>
       </c>
@@ -3903,7 +3952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="94" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J94">
         <v>22</v>
       </c>
@@ -3938,7 +3987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="95" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J95">
         <v>22</v>
       </c>
@@ -3973,7 +4022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="96" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J96">
         <v>23</v>
       </c>
@@ -4008,7 +4057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="97" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J97">
         <v>22</v>
       </c>
@@ -4043,7 +4092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="98" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J98">
         <v>21</v>
       </c>
@@ -4078,7 +4127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="99" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J99">
         <v>22</v>
       </c>
@@ -4113,7 +4162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="100" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J100">
         <v>22</v>
       </c>
@@ -4148,7 +4197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="101" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J101">
         <v>21</v>
       </c>
@@ -4183,7 +4232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="102" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J102">
         <v>21</v>
       </c>
@@ -4218,7 +4267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="103" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J103">
         <v>21</v>
       </c>
@@ -4253,7 +4302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="104" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J104">
         <v>23</v>
       </c>
@@ -4288,7 +4337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="105" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J105">
         <v>22</v>
       </c>
@@ -4323,7 +4372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="106" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J106">
         <v>20</v>
       </c>
@@ -4358,7 +4407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="107" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J107">
         <v>21</v>
       </c>
@@ -4393,7 +4442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="108" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J108">
         <v>21</v>
       </c>
@@ -4428,7 +4477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="109" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J109">
         <v>21</v>
       </c>
@@ -4463,7 +4512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="110" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J110">
         <v>22</v>
       </c>
@@ -4498,7 +4547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="111" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J111">
         <v>22</v>
       </c>
@@ -4533,7 +4582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="112" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J112">
         <v>21</v>
       </c>
@@ -4568,7 +4617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="113" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J113">
         <v>21</v>
       </c>
@@ -4603,7 +4652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="114" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J114">
         <v>20</v>
       </c>
@@ -4638,7 +4687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="115" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J115">
         <v>21</v>
       </c>
@@ -4673,7 +4722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="116" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J116">
         <v>22</v>
       </c>
@@ -4708,7 +4757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="117" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J117">
         <v>23</v>
       </c>
@@ -4743,7 +4792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="118" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J118">
         <v>23</v>
       </c>
@@ -4778,7 +4827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="119" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J119">
         <v>21</v>
       </c>
@@ -4813,7 +4862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="120" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J120">
         <v>22</v>
       </c>
@@ -4848,7 +4897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="121" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J121">
         <v>21</v>
       </c>
@@ -4883,7 +4932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="122" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J122">
         <v>21</v>
       </c>
@@ -4918,7 +4967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="123" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J123">
         <v>22</v>
       </c>
@@ -4953,7 +5002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="124" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J124">
         <v>21</v>
       </c>
@@ -4988,7 +5037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="125" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J125">
         <v>22</v>
       </c>
@@ -5023,7 +5072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="126" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J126">
         <v>21</v>
       </c>
@@ -5058,7 +5107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="127" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J127">
         <v>21</v>
       </c>
@@ -5093,7 +5142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="128" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J128">
         <v>22</v>
       </c>
@@ -5128,7 +5177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="129" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J129">
         <v>22</v>
       </c>
@@ -5163,7 +5212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="130" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J130">
         <v>22</v>
       </c>
@@ -5198,7 +5247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="131" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J131">
         <v>22</v>
       </c>
@@ -5233,7 +5282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="132" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J132">
         <v>22</v>
       </c>
@@ -5268,7 +5317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="133" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J133">
         <v>22</v>
       </c>
@@ -5303,7 +5352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="134" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J134">
         <v>20</v>
       </c>
@@ -5338,7 +5387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="135" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J135">
         <v>22</v>
       </c>
@@ -5373,7 +5422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="136" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J136">
         <v>22</v>
       </c>
@@ -5408,7 +5457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="137" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J137">
         <v>21</v>
       </c>
@@ -5443,7 +5492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="138" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J138">
         <v>22</v>
       </c>
@@ -5478,7 +5527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="139" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J139">
         <v>21</v>
       </c>
@@ -5513,7 +5562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="140" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J140">
         <v>21</v>
       </c>
@@ -5548,7 +5597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="141" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J141">
         <v>21</v>
       </c>
@@ -5583,7 +5632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="142" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J142">
         <v>21</v>
       </c>
@@ -5618,7 +5667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="143" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J143">
         <v>22</v>
       </c>
@@ -5653,7 +5702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="144" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J144">
         <v>22</v>
       </c>
@@ -5688,7 +5737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="145" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J145">
         <v>22</v>
       </c>
@@ -5723,7 +5772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J146">
         <v>21</v>
       </c>
@@ -5758,7 +5807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J147">
         <v>22</v>
       </c>
@@ -5793,7 +5842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J148">
         <v>21</v>
       </c>
@@ -5828,7 +5877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J149">
         <v>21</v>
       </c>
@@ -5863,7 +5912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J150">
         <v>22</v>
       </c>
@@ -5898,7 +5947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="151" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J151">
         <v>22</v>
       </c>
@@ -5933,7 +5982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="152" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J152">
         <v>22</v>
       </c>
@@ -5968,7 +6017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="153" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J153">
         <v>22</v>
       </c>
@@ -6003,7 +6052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="154" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J154">
         <v>21</v>
       </c>
@@ -6038,7 +6087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="155" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J155">
         <v>21</v>
       </c>
@@ -6073,7 +6122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="156" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J156">
         <v>22</v>
       </c>
@@ -6108,7 +6157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="157" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J157">
         <v>21</v>
       </c>
@@ -6143,7 +6192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="158" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J158">
         <v>22</v>
       </c>
@@ -6178,7 +6227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="159" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J159">
         <v>21</v>
       </c>
@@ -6213,7 +6262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="160" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J160">
         <v>21</v>
       </c>
@@ -6248,7 +6297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J161">
         <v>21</v>
       </c>
@@ -6283,7 +6332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="162" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J162">
         <v>22</v>
       </c>
@@ -6318,7 +6367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="163" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J163">
         <v>23</v>
       </c>
@@ -6353,7 +6402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="164" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J164">
         <v>22</v>
       </c>
@@ -6388,7 +6437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="165" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J165">
         <v>21</v>
       </c>
@@ -6423,7 +6472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="166" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J166">
         <v>21</v>
       </c>
@@ -6458,7 +6507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="167" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J167">
         <v>22</v>
       </c>
@@ -6493,7 +6542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="168" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J168">
         <v>22</v>
       </c>
@@ -6528,7 +6577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="169" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J169">
         <v>22</v>
       </c>
@@ -6563,7 +6612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="170" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J170">
         <v>21</v>
       </c>
@@ -6598,7 +6647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="171" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J171">
         <v>22</v>
       </c>
@@ -6633,7 +6682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="172" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J172">
         <v>21</v>
       </c>
@@ -6668,7 +6717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="173" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J173">
         <v>20</v>
       </c>
@@ -6703,7 +6752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="174" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J174">
         <v>21</v>
       </c>
@@ -6738,7 +6787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="175" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J175">
         <v>21</v>
       </c>
@@ -6773,7 +6822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="176" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J176">
         <v>21</v>
       </c>
@@ -6808,7 +6857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="177" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J177">
         <v>22</v>
       </c>
@@ -6843,7 +6892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="178" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J178">
         <v>21</v>
       </c>
@@ -6878,7 +6927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="179" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J179">
         <v>20</v>
       </c>
@@ -6913,7 +6962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="180" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J180">
         <v>22</v>
       </c>
@@ -6948,7 +6997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="181" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J181">
         <v>21</v>
       </c>
@@ -6983,7 +7032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="182" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J182">
         <v>22</v>
       </c>
@@ -7018,7 +7067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="183" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J183">
         <v>22</v>
       </c>
@@ -7053,7 +7102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="184" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J184">
         <v>21</v>
       </c>
@@ -7088,7 +7137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="185" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J185">
         <v>21</v>
       </c>
@@ -7123,7 +7172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="186" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J186">
         <v>21</v>
       </c>
@@ -7158,7 +7207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="187" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J187">
         <v>22</v>
       </c>
@@ -7193,7 +7242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="188" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J188">
         <v>21</v>
       </c>
@@ -7228,7 +7277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="189" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J189">
         <v>22</v>
       </c>
@@ -7263,7 +7312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="190" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J190">
         <v>21</v>
       </c>
@@ -7298,7 +7347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="191" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J191">
         <v>21</v>
       </c>
@@ -7333,7 +7382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="192" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J192">
         <v>21</v>
       </c>
@@ -7368,7 +7417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="193" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J193">
         <v>21</v>
       </c>
@@ -7403,7 +7452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="194" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J194">
         <v>23</v>
       </c>
@@ -7438,7 +7487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="195" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J195">
         <v>22</v>
       </c>
@@ -7473,7 +7522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="196" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J196">
         <v>22</v>
       </c>
@@ -7508,7 +7557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="197" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J197">
         <v>22</v>
       </c>
@@ -7543,7 +7592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="198" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J198">
         <v>22</v>
       </c>
@@ -7578,7 +7627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="199" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J199">
         <v>22</v>
       </c>
@@ -7613,7 +7662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="200" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J200">
         <v>22</v>
       </c>
@@ -7648,7 +7697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="201" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J201">
         <v>22</v>
       </c>
@@ -7683,7 +7732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="202" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J202">
         <v>21</v>
       </c>
@@ -7718,7 +7767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="203" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J203">
         <v>22</v>
       </c>
@@ -7753,7 +7802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="204" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J204">
         <v>22</v>
       </c>
@@ -7788,7 +7837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="205" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J205">
         <v>21</v>
       </c>
@@ -7823,7 +7872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="206" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J206">
         <v>21</v>
       </c>
@@ -7858,7 +7907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="207" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J207">
         <v>22</v>
       </c>
@@ -7893,7 +7942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="208" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J208">
         <v>22</v>
       </c>
@@ -7928,7 +7977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="209" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J209">
         <v>23</v>
       </c>
@@ -7963,7 +8012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="210" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J210">
         <v>23</v>
       </c>
@@ -7998,7 +8047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="211" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J211">
         <v>22</v>
       </c>
@@ -8033,7 +8082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="212" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J212">
         <v>21</v>
       </c>
@@ -8068,7 +8117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="213" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J213">
         <v>21</v>
       </c>
@@ -8103,7 +8152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="214" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J214">
         <v>21</v>
       </c>
@@ -8138,7 +8187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="215" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J215">
         <v>20</v>
       </c>
@@ -8173,7 +8222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="216" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J216">
         <v>22</v>
       </c>
@@ -8208,7 +8257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="217" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J217">
         <v>21</v>
       </c>
@@ -8243,7 +8292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="218" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J218">
         <v>22</v>
       </c>
@@ -8278,7 +8327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="219" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J219">
         <v>20</v>
       </c>
@@ -8313,7 +8362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="220" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J220">
         <v>23</v>
       </c>
@@ -8348,7 +8397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="221" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J221">
         <v>21</v>
       </c>
@@ -8383,7 +8432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="222" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J222">
         <v>22</v>
       </c>
@@ -8418,7 +8467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="223" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J223">
         <v>22</v>
       </c>
@@ -8453,7 +8502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="224" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J224">
         <v>22</v>
       </c>
@@ -8488,7 +8537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="225" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J225">
         <v>22</v>
       </c>
@@ -8523,7 +8572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="226" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J226">
         <v>22</v>
       </c>
@@ -8558,7 +8607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="227" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J227">
         <v>21</v>
       </c>
@@ -8593,7 +8642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="228" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J228">
         <v>21</v>
       </c>
@@ -8628,7 +8677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="229" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J229">
         <v>21</v>
       </c>
@@ -8663,7 +8712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="230" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J230">
         <v>22</v>
       </c>
@@ -8698,7 +8747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="231" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J231">
         <v>22</v>
       </c>
@@ -8733,7 +8782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="232" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J232">
         <v>22</v>
       </c>
@@ -8768,7 +8817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="233" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J233">
         <v>21</v>
       </c>
@@ -8803,7 +8852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="234" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J234">
         <v>22</v>
       </c>
@@ -8838,7 +8887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="235" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J235">
         <v>23</v>
       </c>
@@ -8873,7 +8922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="236" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J236">
         <v>21</v>
       </c>
@@ -8908,7 +8957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="237" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J237">
         <v>22</v>
       </c>
@@ -8943,7 +8992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="238" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J238">
         <v>21</v>
       </c>
@@ -8978,7 +9027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="239" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J239">
         <v>20</v>
       </c>
@@ -9013,7 +9062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="240" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J240">
         <v>22</v>
       </c>
@@ -9048,7 +9097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="241" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J241">
         <v>22</v>
       </c>
@@ -9083,7 +9132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="242" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J242">
         <v>21</v>
       </c>
@@ -9118,7 +9167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="243" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J243">
         <v>22</v>
       </c>
@@ -9153,7 +9202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="244" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J244">
         <v>21</v>
       </c>
@@ -9188,7 +9237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="245" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J245">
         <v>23</v>
       </c>
@@ -9223,7 +9272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="246" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J246">
         <v>22</v>
       </c>
@@ -9258,7 +9307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="247" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J247">
         <v>22</v>
       </c>
@@ -9293,7 +9342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="248" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J248">
         <v>22</v>
       </c>
@@ -9328,7 +9377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="249" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J249">
         <v>22</v>
       </c>
@@ -9363,7 +9412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="250" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J250">
         <v>20</v>
       </c>
@@ -9398,7 +9447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="251" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J251">
         <v>21</v>
       </c>
@@ -9433,7 +9482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="252" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J252">
         <v>21</v>
       </c>
@@ -9468,7 +9517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="253" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J253">
         <v>21</v>
       </c>
@@ -9503,7 +9552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="254" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J254">
         <v>21</v>
       </c>
@@ -9538,7 +9587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="255" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J255">
         <v>22</v>
       </c>
@@ -9573,7 +9622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="256" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J256">
         <v>22</v>
       </c>
@@ -9608,7 +9657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="257" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J257">
         <v>21</v>
       </c>
@@ -9643,7 +9692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="258" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J258">
         <v>22</v>
       </c>
@@ -9678,7 +9727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="259" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J259">
         <v>22</v>
       </c>
@@ -9713,7 +9762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="260" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J260">
         <v>21</v>
       </c>
@@ -9748,7 +9797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="261" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J261">
         <v>21</v>
       </c>
@@ -9783,7 +9832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="262" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J262">
         <v>21</v>
       </c>
@@ -9818,7 +9867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="263" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J263">
         <v>21</v>
       </c>
@@ -9853,7 +9902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="264" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J264">
         <v>22</v>
       </c>
@@ -9888,7 +9937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="265" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J265">
         <v>21</v>
       </c>
@@ -9923,7 +9972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="266" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J266">
         <v>21</v>
       </c>
@@ -9958,7 +10007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="267" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J267">
         <v>22</v>
       </c>
@@ -9993,7 +10042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="268" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J268">
         <v>22</v>
       </c>
@@ -10028,7 +10077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="269" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J269">
         <v>23</v>
       </c>
@@ -10063,7 +10112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="270" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J270">
         <v>21</v>
       </c>
@@ -10098,7 +10147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="271" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J271">
         <v>22</v>
       </c>
@@ -10133,7 +10182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="272" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J272">
         <v>21</v>
       </c>
@@ -10168,7 +10217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="273" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J273">
         <v>21</v>
       </c>
@@ -10203,7 +10252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="274" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J274">
         <v>21</v>
       </c>
@@ -10238,7 +10287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="275" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J275">
         <v>21</v>
       </c>
@@ -10273,7 +10322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="276" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J276">
         <v>22</v>
       </c>
@@ -10308,7 +10357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="277" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J277">
         <v>21</v>
       </c>
@@ -10343,7 +10392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="278" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J278">
         <v>22</v>
       </c>
@@ -10378,7 +10427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="279" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J279">
         <v>21</v>
       </c>
@@ -10413,7 +10462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="280" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J280">
         <v>22</v>
       </c>
@@ -10448,7 +10497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="281" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J281">
         <v>21</v>
       </c>
@@ -10483,7 +10532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="282" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J282">
         <v>22</v>
       </c>
@@ -10518,7 +10567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="283" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J283">
         <v>21</v>
       </c>
@@ -10553,7 +10602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="284" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J284">
         <v>21</v>
       </c>
@@ -10588,7 +10637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="285" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J285">
         <v>21</v>
       </c>
@@ -10623,7 +10672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="286" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J286">
         <v>21</v>
       </c>
@@ -10658,7 +10707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="287" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J287">
         <v>21</v>
       </c>
@@ -10693,7 +10742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="288" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J288">
         <v>22</v>
       </c>
@@ -10728,7 +10777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="289" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J289">
         <v>23</v>
       </c>
@@ -10763,7 +10812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="290" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J290">
         <v>22</v>
       </c>
@@ -10798,7 +10847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="291" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J291">
         <v>21</v>
       </c>
@@ -10833,7 +10882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="292" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J292">
         <v>20</v>
       </c>
@@ -10868,7 +10917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="293" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J293">
         <v>22</v>
       </c>
@@ -10903,7 +10952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="294" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J294">
         <v>21</v>
       </c>
@@ -10938,7 +10987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="295" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J295">
         <v>21</v>
       </c>
@@ -10973,7 +11022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="296" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J296">
         <v>21</v>
       </c>
@@ -11008,7 +11057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="297" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J297">
         <v>21</v>
       </c>
@@ -11043,7 +11092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="298" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J298">
         <v>20</v>
       </c>
@@ -11078,7 +11127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="299" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J299">
         <v>21</v>
       </c>
@@ -11113,7 +11162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="300" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J300">
         <v>21</v>
       </c>
@@ -11148,7 +11197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="301" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J301">
         <v>22</v>
       </c>
@@ -11183,7 +11232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="302" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J302">
         <v>21</v>
       </c>
@@ -11218,7 +11267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="303" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J303">
         <v>21</v>
       </c>
@@ -11253,7 +11302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="304" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J304">
         <v>21</v>
       </c>
@@ -11288,7 +11337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="305" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J305">
         <v>23</v>
       </c>
@@ -11323,7 +11372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="306" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J306">
         <v>22</v>
       </c>
@@ -11358,7 +11407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="307" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J307">
         <v>21</v>
       </c>
@@ -11393,7 +11442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="308" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J308">
         <v>21</v>
       </c>
@@ -11428,7 +11477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="309" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J309">
         <v>22</v>
       </c>
@@ -11463,7 +11512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="310" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J310">
         <v>21</v>
       </c>
@@ -11498,7 +11547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="311" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J311">
         <v>21</v>
       </c>
@@ -11533,7 +11582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="312" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J312">
         <v>21</v>
       </c>
@@ -11568,7 +11617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="313" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J313">
         <v>21</v>
       </c>
@@ -11603,7 +11652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="314" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J314">
         <v>20</v>
       </c>
@@ -11638,7 +11687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="315" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J315">
         <v>21</v>
       </c>
@@ -11673,7 +11722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="316" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J316">
         <v>22</v>
       </c>
@@ -11708,7 +11757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="317" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J317">
         <v>21</v>
       </c>
@@ -11743,7 +11792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="318" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J318">
         <v>21</v>
       </c>
@@ -11778,7 +11827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="319" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J319">
         <v>23</v>
       </c>
@@ -11813,7 +11862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="320" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J320">
         <v>21</v>
       </c>
@@ -11848,7 +11897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="321" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J321">
         <v>23</v>
       </c>
@@ -11883,7 +11932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="322" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J322">
         <v>23</v>
       </c>
@@ -11918,7 +11967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="323" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J323">
         <v>23</v>
       </c>
@@ -11953,7 +12002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="324" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J324">
         <v>21</v>
       </c>
@@ -11988,7 +12037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="325" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J325">
         <v>21</v>
       </c>
@@ -12023,7 +12072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="326" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J326">
         <v>22</v>
       </c>
@@ -12058,7 +12107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="327" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J327">
         <v>23</v>
       </c>
@@ -12093,7 +12142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="328" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J328">
         <v>21</v>
       </c>
@@ -12128,7 +12177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="329" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J329">
         <v>22</v>
       </c>
@@ -12163,7 +12212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="330" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J330">
         <v>22</v>
       </c>
@@ -12198,7 +12247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="331" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J331">
         <v>21</v>
       </c>
@@ -12233,7 +12282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="332" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J332">
         <v>21</v>
       </c>
@@ -12268,7 +12317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="333" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J333">
         <v>22</v>
       </c>
@@ -12303,7 +12352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="334" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J334">
         <v>21</v>
       </c>
@@ -12338,7 +12387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="335" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J335">
         <v>22</v>
       </c>
@@ -12373,7 +12422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="336" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J336">
         <v>21</v>
       </c>
@@ -12408,7 +12457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="337" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J337">
         <v>22</v>
       </c>
@@ -12443,7 +12492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="338" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J338">
         <v>21</v>
       </c>
@@ -12478,7 +12527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="339" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J339">
         <v>21</v>
       </c>
@@ -12513,7 +12562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="340" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J340">
         <v>22</v>
       </c>
@@ -12548,7 +12597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="341" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J341">
         <v>21</v>
       </c>
@@ -12583,7 +12632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="342" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J342">
         <v>21</v>
       </c>
@@ -12618,7 +12667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="343" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J343">
         <v>22</v>
       </c>
@@ -12653,7 +12702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="344" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J344">
         <v>21</v>
       </c>
@@ -12688,7 +12737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="345" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J345">
         <v>21</v>
       </c>
@@ -12723,7 +12772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="346" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J346">
         <v>21</v>
       </c>
@@ -12758,7 +12807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="347" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J347">
         <v>22</v>
       </c>
@@ -12793,7 +12842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="348" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J348">
         <v>22</v>
       </c>
@@ -12828,7 +12877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="349" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J349">
         <v>22</v>
       </c>
@@ -12863,7 +12912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="350" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J350">
         <v>22</v>
       </c>
@@ -12898,7 +12947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="351" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J351">
         <v>22</v>
       </c>
@@ -12933,7 +12982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="352" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J352">
         <v>23</v>
       </c>
@@ -12968,7 +13017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="353" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J353">
         <v>22</v>
       </c>
@@ -13003,7 +13052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="354" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J354">
         <v>22</v>
       </c>
@@ -13038,7 +13087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="355" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J355">
         <v>21</v>
       </c>
@@ -13073,7 +13122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="356" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J356">
         <v>22</v>
       </c>
@@ -13108,7 +13157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="357" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J357">
         <v>22</v>
       </c>
@@ -13143,7 +13192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="358" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J358">
         <v>22</v>
       </c>
@@ -13178,7 +13227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="359" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J359">
         <v>21</v>
       </c>
@@ -13213,7 +13262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="360" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J360">
         <v>22</v>
       </c>
@@ -13248,7 +13297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="361" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J361">
         <v>20</v>
       </c>
@@ -13283,7 +13332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="362" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J362">
         <v>21</v>
       </c>
@@ -13318,7 +13367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="363" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J363">
         <v>22</v>
       </c>
@@ -13353,7 +13402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="364" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J364">
         <v>22</v>
       </c>
@@ -13388,7 +13437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="365" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J365">
         <v>21</v>
       </c>
@@ -13423,7 +13472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="366" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J366">
         <v>21</v>
       </c>
@@ -13458,7 +13507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="367" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J367">
         <v>21</v>
       </c>
@@ -13493,7 +13542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="368" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J368">
         <v>21</v>
       </c>
@@ -13528,7 +13577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="369" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J369">
         <v>21</v>
       </c>
@@ -13563,7 +13612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="370" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J370">
         <v>22</v>
       </c>
@@ -13598,7 +13647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="371" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J371">
         <v>21</v>
       </c>
@@ -13633,7 +13682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="372" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J372">
         <v>23</v>
       </c>
@@ -13668,7 +13717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="373" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J373">
         <v>22</v>
       </c>
@@ -13703,7 +13752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="374" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J374">
         <v>22</v>
       </c>
@@ -13738,7 +13787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="375" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J375">
         <v>23</v>
       </c>
@@ -13773,7 +13822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="376" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J376">
         <v>22</v>
       </c>
@@ -13808,7 +13857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="377" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J377">
         <v>22</v>
       </c>
@@ -13843,7 +13892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="378" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J378">
         <v>22</v>
       </c>
@@ -13878,7 +13927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="379" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J379">
         <v>22</v>
       </c>
@@ -13913,7 +13962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="380" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J380">
         <v>22</v>
       </c>
@@ -13948,7 +13997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="381" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J381">
         <v>21</v>
       </c>
@@ -13983,7 +14032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="382" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J382">
         <v>21</v>
       </c>
@@ -14018,7 +14067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="383" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J383">
         <v>21</v>
       </c>
@@ -14053,7 +14102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="384" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J384">
         <v>21</v>
       </c>
@@ -14088,7 +14137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="385" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J385">
         <v>21</v>
       </c>
@@ -14123,7 +14172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="386" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J386">
         <v>22</v>
       </c>
@@ -14158,7 +14207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="387" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J387">
         <v>21</v>
       </c>
@@ -14193,7 +14242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="388" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J388">
         <v>23</v>
       </c>
@@ -14228,7 +14277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="389" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="389" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J389">
         <v>23</v>
       </c>
@@ -14263,7 +14312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="390" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J390">
         <v>21</v>
       </c>
@@ -14298,7 +14347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="391" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J391">
         <v>22</v>
       </c>
@@ -14333,7 +14382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="392" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J392">
         <v>21</v>
       </c>
@@ -14368,7 +14417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="393" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J393">
         <v>21</v>
       </c>
@@ -14403,7 +14452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="394" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J394">
         <v>21</v>
       </c>
@@ -14438,7 +14487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="395" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J395">
         <v>22</v>
       </c>
@@ -14473,7 +14522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="396" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J396">
         <v>22</v>
       </c>
@@ -14508,7 +14557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="397" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J397">
         <v>21</v>
       </c>
@@ -14543,7 +14592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="398" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J398">
         <v>21</v>
       </c>
@@ -14578,7 +14627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="399" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J399">
         <v>22</v>
       </c>
@@ -14613,7 +14662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="400" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J400">
         <v>21</v>
       </c>
@@ -14648,7 +14697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="401" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J401">
         <v>22</v>
       </c>
@@ -14683,7 +14732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="402" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J402">
         <v>21</v>
       </c>
@@ -14718,7 +14767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="403" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J403">
         <v>22</v>
       </c>
@@ -14753,7 +14802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="404" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J404">
         <v>21</v>
       </c>
@@ -14788,7 +14837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="405" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J405">
         <v>23</v>
       </c>
@@ -14823,7 +14872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="406" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J406">
         <v>21</v>
       </c>
@@ -14858,7 +14907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="407" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J407">
         <v>22</v>
       </c>
@@ -14893,7 +14942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="408" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J408">
         <v>22</v>
       </c>
@@ -14928,7 +14977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="409" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J409">
         <v>21</v>
       </c>
@@ -14963,7 +15012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="410" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J410">
         <v>21</v>
       </c>
@@ -14998,7 +15047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="411" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J411">
         <v>21</v>
       </c>
@@ -15033,7 +15082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="412" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J412">
         <v>22</v>
       </c>
@@ -15068,7 +15117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="413" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J413">
         <v>20</v>
       </c>
@@ -15103,7 +15152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="414" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J414">
         <v>22</v>
       </c>
@@ -15138,7 +15187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="415" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J415">
         <v>21</v>
       </c>
@@ -15173,7 +15222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="416" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J416">
         <v>21</v>
       </c>
@@ -15208,7 +15257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="417" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J417">
         <v>21</v>
       </c>
@@ -15243,7 +15292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="418" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J418">
         <v>22</v>
       </c>
@@ -15278,7 +15327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="419" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="419" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J419">
         <v>21</v>
       </c>
@@ -15313,7 +15362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="420" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J420">
         <v>22</v>
       </c>
@@ -15348,7 +15397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="421" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J421">
         <v>22</v>
       </c>
@@ -15383,7 +15432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="422" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J422">
         <v>22</v>
       </c>
@@ -15418,7 +15467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="423" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J423">
         <v>21</v>
       </c>
@@ -15453,7 +15502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="424" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="424" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J424">
         <v>21</v>
       </c>
@@ -15488,7 +15537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="425" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J425">
         <v>23</v>
       </c>
@@ -15523,7 +15572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="426" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J426">
         <v>22</v>
       </c>
@@ -15558,7 +15607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="427" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J427">
         <v>21</v>
       </c>
@@ -15593,7 +15642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="428" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J428">
         <v>20</v>
       </c>
@@ -15628,7 +15677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="429" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="429" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J429">
         <v>21</v>
       </c>
@@ -15663,7 +15712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="430" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J430">
         <v>21</v>
       </c>
@@ -15698,7 +15747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="431" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J431">
         <v>22</v>
       </c>
@@ -15733,7 +15782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="432" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J432">
         <v>21</v>
       </c>
@@ -15768,7 +15817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="433" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J433">
         <v>21</v>
       </c>
@@ -15803,7 +15852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="434" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J434">
         <v>22</v>
       </c>
@@ -15838,7 +15887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="435" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J435">
         <v>23</v>
       </c>
@@ -15873,7 +15922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="436" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J436">
         <v>22</v>
       </c>
@@ -15908,7 +15957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="437" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J437">
         <v>22</v>
       </c>
@@ -15943,7 +15992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="438" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J438">
         <v>21</v>
       </c>
@@ -15978,7 +16027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="439" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J439">
         <v>23</v>
       </c>
@@ -16013,7 +16062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="440" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J440">
         <v>22</v>
       </c>
@@ -16048,7 +16097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="441" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J441">
         <v>21</v>
       </c>
@@ -16083,7 +16132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="442" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J442">
         <v>21</v>
       </c>
@@ -16118,7 +16167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="443" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J443">
         <v>22</v>
       </c>
@@ -16153,7 +16202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="444" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J444">
         <v>22</v>
       </c>
@@ -16188,7 +16237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="445" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J445">
         <v>22</v>
       </c>
@@ -16223,7 +16272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="446" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J446">
         <v>22</v>
       </c>
@@ -16258,7 +16307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="447" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="447" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J447">
         <v>21</v>
       </c>
@@ -16293,7 +16342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="448" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J448">
         <v>20</v>
       </c>
@@ -16328,7 +16377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="449" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J449">
         <v>22</v>
       </c>
@@ -16363,7 +16412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="450" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J450">
         <v>21</v>
       </c>
@@ -16398,7 +16447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="451" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J451">
         <v>22</v>
       </c>
@@ -16433,7 +16482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="452" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J452">
         <v>22</v>
       </c>
@@ -16468,7 +16517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="453" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J453">
         <v>22</v>
       </c>
@@ -16503,7 +16552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="454" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J454">
         <v>20</v>
       </c>
@@ -16538,7 +16587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="455" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J455">
         <v>22</v>
       </c>
@@ -16573,7 +16622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="456" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="456" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J456">
         <v>22</v>
       </c>
@@ -16608,7 +16657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="457" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="457" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J457">
         <v>21</v>
       </c>
@@ -16643,7 +16692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="458" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J458">
         <v>22</v>
       </c>
@@ -16678,7 +16727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="459" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="459" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J459">
         <v>22</v>
       </c>
@@ -16713,7 +16762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="460" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="460" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J460">
         <v>21</v>
       </c>
@@ -16748,7 +16797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="461" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="461" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J461">
         <v>21</v>
       </c>
@@ -16783,7 +16832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="462" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J462">
         <v>23</v>
       </c>
@@ -16818,7 +16867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="463" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J463">
         <v>21</v>
       </c>
@@ -16853,7 +16902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="464" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="464" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J464">
         <v>21</v>
       </c>
@@ -16888,7 +16937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="465" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J465">
         <v>22</v>
       </c>
@@ -16923,7 +16972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="466" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="466" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J466">
         <v>22</v>
       </c>
@@ -16958,7 +17007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="467" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J467">
         <v>21</v>
       </c>
@@ -16993,7 +17042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="468" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="468" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J468">
         <v>21</v>
       </c>
@@ -17028,7 +17077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="469" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J469">
         <v>23</v>
       </c>
@@ -17063,7 +17112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="470" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J470">
         <v>21</v>
       </c>
@@ -17098,7 +17147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="471" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J471">
         <v>21</v>
       </c>
@@ -17133,7 +17182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="472" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J472">
         <v>22</v>
       </c>
@@ -17168,7 +17217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="473" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J473">
         <v>20</v>
       </c>
@@ -17203,7 +17252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="474" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J474">
         <v>21</v>
       </c>
@@ -17238,7 +17287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="475" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J475">
         <v>21</v>
       </c>
@@ -17273,7 +17322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="476" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J476">
         <v>21</v>
       </c>
@@ -17308,7 +17357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="477" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J477">
         <v>21</v>
       </c>
@@ -17343,7 +17392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="478" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="478" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J478">
         <v>21</v>
       </c>
@@ -17378,7 +17427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="479" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J479">
         <v>21</v>
       </c>
@@ -17413,7 +17462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="480" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J480">
         <v>22</v>
       </c>
@@ -17448,7 +17497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="481" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="481" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J481">
         <v>21</v>
       </c>
@@ -17483,7 +17532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="482" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="482" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J482">
         <v>23</v>
       </c>
@@ -17518,7 +17567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="483" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J483">
         <v>21</v>
       </c>
@@ -17553,7 +17602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="484" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="484" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J484">
         <v>22</v>
       </c>
@@ -17588,7 +17637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="485" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="485" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J485">
         <v>22</v>
       </c>
@@ -17623,7 +17672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="486" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J486">
         <v>22</v>
       </c>
@@ -17658,7 +17707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="487" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J487">
         <v>21</v>
       </c>
@@ -17693,7 +17742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="488" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="488" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J488">
         <v>23</v>
       </c>
@@ -17728,7 +17777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="489" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J489">
         <v>22</v>
       </c>
@@ -17763,7 +17812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="490" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J490">
         <v>21</v>
       </c>
@@ -17798,7 +17847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="491" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J491">
         <v>22</v>
       </c>
@@ -17833,7 +17882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="492" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="492" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J492">
         <v>21</v>
       </c>
@@ -17868,7 +17917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="493" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J493">
         <v>21</v>
       </c>
@@ -17903,7 +17952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="494" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J494">
         <v>21</v>
       </c>
@@ -17938,7 +17987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="495" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J495">
         <v>21</v>
       </c>
@@ -17973,7 +18022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="496" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="496" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J496">
         <v>23</v>
       </c>
@@ -18008,7 +18057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="497" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J497">
         <v>22</v>
       </c>
@@ -18043,7 +18092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="498" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="498" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J498">
         <v>22</v>
       </c>
@@ -18078,7 +18127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="499" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J499">
         <v>21</v>
       </c>
@@ -18113,7 +18162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="500" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="500" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J500">
         <v>21</v>
       </c>
@@ -18148,7 +18197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="501" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="501" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J501">
         <v>21</v>
       </c>
@@ -18183,7 +18232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="502" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J502">
         <v>20</v>
       </c>
@@ -18218,7 +18267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="503" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J503">
         <v>21</v>
       </c>
@@ -18253,7 +18302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="504" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J504">
         <v>20</v>
       </c>
@@ -18288,7 +18337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="505" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="505" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J505">
         <v>21</v>
       </c>
@@ -18323,7 +18372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="506" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="506" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J506">
         <v>21</v>
       </c>
@@ -18358,7 +18407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="507" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J507">
         <v>22</v>
       </c>
@@ -18393,7 +18442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="508" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J508">
         <v>20</v>
       </c>
@@ -18428,7 +18477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="509" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="509" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J509">
         <v>22</v>
       </c>
@@ -18463,7 +18512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="510" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="510" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J510">
         <v>21</v>
       </c>
@@ -18498,7 +18547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="511" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J511">
         <v>22</v>
       </c>
@@ -18533,7 +18582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="512" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J512">
         <v>21</v>
       </c>
@@ -18568,7 +18617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="513" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="513" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J513">
         <v>21</v>
       </c>
@@ -18603,7 +18652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="514" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="514" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J514">
         <v>21</v>
       </c>
@@ -18638,7 +18687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="515" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J515">
         <v>21</v>
       </c>
@@ -18673,7 +18722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="516" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="516" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J516">
         <v>22</v>
       </c>
@@ -18708,7 +18757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="517" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J517">
         <v>22</v>
       </c>
@@ -18743,7 +18792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="518" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="518" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J518">
         <v>21</v>
       </c>
@@ -18778,7 +18827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="519" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="519" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J519">
         <v>22</v>
       </c>
@@ -18813,7 +18862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="520" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J520">
         <v>21</v>
       </c>
@@ -18848,7 +18897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="521" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J521">
         <v>21</v>
       </c>
@@ -18883,7 +18932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="522" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J522">
         <v>23</v>
       </c>
@@ -18918,7 +18967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="523" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J523">
         <v>22</v>
       </c>
@@ -18953,7 +19002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="524" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J524">
         <v>22</v>
       </c>
@@ -18988,7 +19037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="525" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="525" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J525">
         <v>21</v>
       </c>
@@ -19023,7 +19072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="526" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="526" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J526">
         <v>22</v>
       </c>
@@ -19058,7 +19107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="527" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="527" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J527">
         <v>21</v>
       </c>
@@ -19093,7 +19142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="528" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="528" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J528">
         <v>21</v>
       </c>
@@ -19128,7 +19177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="529" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J529">
         <v>22</v>
       </c>
@@ -19163,7 +19212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="530" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="530" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J530">
         <v>22</v>
       </c>
@@ -19198,7 +19247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="531" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="531" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J531">
         <v>22</v>
       </c>
@@ -19233,7 +19282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="532" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J532">
         <v>21</v>
       </c>
@@ -19268,7 +19317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="533" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="533" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J533">
         <v>21</v>
       </c>
@@ -19303,7 +19352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="534" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="534" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J534">
         <v>22</v>
       </c>
@@ -19338,7 +19387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="535" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="535" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J535">
         <v>22</v>
       </c>
@@ -19373,7 +19422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="536" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J536">
         <v>20</v>
       </c>
@@ -19408,7 +19457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="537" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="537" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J537">
         <v>22</v>
       </c>
@@ -19443,7 +19492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="538" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="538" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J538">
         <v>22</v>
       </c>
@@ -19478,7 +19527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="539" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="539" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J539">
         <v>22</v>
       </c>
@@ -19513,7 +19562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="540" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J540">
         <v>22</v>
       </c>
@@ -19548,7 +19597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="541" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J541">
         <v>21</v>
       </c>
@@ -19583,7 +19632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="542" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="542" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J542">
         <v>22</v>
       </c>
@@ -19618,7 +19667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="543" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="543" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J543">
         <v>22</v>
       </c>
@@ -19653,7 +19702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="544" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="544" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J544">
         <v>21</v>
       </c>
@@ -19688,7 +19737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="545" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="545" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J545">
         <v>20</v>
       </c>
@@ -19723,7 +19772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="546" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="546" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J546">
         <v>22</v>
       </c>
@@ -19758,7 +19807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="547" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="547" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J547">
         <v>22</v>
       </c>
@@ -19793,7 +19842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="548" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="548" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J548">
         <v>22</v>
       </c>
@@ -19828,7 +19877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="549" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="549" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J549">
         <v>20</v>
       </c>
@@ -19863,7 +19912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="550" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="550" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J550">
         <v>20</v>
       </c>
@@ -19898,7 +19947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="551" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="551" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J551">
         <v>22</v>
       </c>
@@ -19933,7 +19982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="552" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J552">
         <v>21</v>
       </c>
@@ -19968,7 +20017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="553" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="553" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J553">
         <v>21</v>
       </c>
@@ -20003,7 +20052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="554" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="554" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J554">
         <v>22</v>
       </c>
@@ -20038,7 +20087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="555" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="555" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J555">
         <v>21</v>
       </c>
@@ -20073,7 +20122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="556" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J556">
         <v>22</v>
       </c>
@@ -20108,7 +20157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="557" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="557" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J557">
         <v>22</v>
       </c>
@@ -20143,7 +20192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="558" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="558" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J558">
         <v>23</v>
       </c>
@@ -20178,7 +20227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="559" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J559">
         <v>22</v>
       </c>
@@ -20213,7 +20262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="560" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="560" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J560">
         <v>21</v>
       </c>
@@ -20248,7 +20297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="561" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="561" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J561">
         <v>21</v>
       </c>
@@ -20283,7 +20332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="562" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="562" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J562">
         <v>21</v>
       </c>
@@ -20318,7 +20367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="563" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="563" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J563">
         <v>22</v>
       </c>
@@ -20353,7 +20402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="564" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="564" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J564">
         <v>22</v>
       </c>
@@ -20388,7 +20437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="565" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J565">
         <v>22</v>
       </c>
@@ -20423,7 +20472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="566" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J566">
         <v>22</v>
       </c>
@@ -20458,7 +20507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="567" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="567" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J567">
         <v>22</v>
       </c>
@@ -20493,7 +20542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="568" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="568" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J568">
         <v>21</v>
       </c>
@@ -20528,7 +20577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="569" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="569" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J569">
         <v>21</v>
       </c>
@@ -20563,7 +20612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="570" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="570" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J570">
         <v>23</v>
       </c>
@@ -20598,7 +20647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="571" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="571" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J571">
         <v>21</v>
       </c>
@@ -20633,7 +20682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="572" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="572" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J572">
         <v>20</v>
       </c>
@@ -20668,7 +20717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="573" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="573" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J573">
         <v>21</v>
       </c>
@@ -20703,7 +20752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="574" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J574">
         <v>21</v>
       </c>
@@ -20738,7 +20787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="575" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="575" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J575">
         <v>21</v>
       </c>
@@ -20773,7 +20822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="576" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="576" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J576">
         <v>21</v>
       </c>
@@ -20808,7 +20857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="577" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="577" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J577">
         <v>22</v>
       </c>
@@ -20843,7 +20892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="578" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="578" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J578">
         <v>21</v>
       </c>
@@ -20878,7 +20927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="579" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="579" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J579">
         <v>21</v>
       </c>
@@ -20913,7 +20962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="580" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="580" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J580">
         <v>21</v>
       </c>
@@ -20948,7 +20997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="581" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="581" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J581">
         <v>22</v>
       </c>
@@ -20983,7 +21032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="582" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="582" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J582">
         <v>22</v>
       </c>
@@ -21018,7 +21067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="583" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="583" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J583">
         <v>21</v>
       </c>
@@ -21053,7 +21102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="584" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J584">
         <v>22</v>
       </c>
@@ -21088,7 +21137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="585" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="585" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J585">
         <v>22</v>
       </c>
@@ -21123,7 +21172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="586" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="586" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J586">
         <v>20</v>
       </c>
@@ -21158,7 +21207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="587" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="587" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J587">
         <v>21</v>
       </c>
@@ -21193,7 +21242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="588" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="588" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J588">
         <v>21</v>
       </c>
@@ -21228,7 +21277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="589" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J589">
         <v>22</v>
       </c>
@@ -21263,7 +21312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="590" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="590" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J590">
         <v>22</v>
       </c>
@@ -21298,7 +21347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="591" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="591" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J591">
         <v>21</v>
       </c>
@@ -21333,7 +21382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="592" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J592">
         <v>22</v>
       </c>
@@ -21368,7 +21417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="593" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J593">
         <v>22</v>
       </c>
@@ -21403,7 +21452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="594" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="594" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J594">
         <v>23</v>
       </c>
@@ -21438,7 +21487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="595" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="595" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J595">
         <v>21</v>
       </c>
@@ -21473,7 +21522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="596" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="596" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J596">
         <v>22</v>
       </c>
@@ -21508,7 +21557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="597" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J597">
         <v>22</v>
       </c>
@@ -21543,7 +21592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="598" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="598" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J598">
         <v>23</v>
       </c>
@@ -21578,7 +21627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="599" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="599" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J599">
         <v>23</v>
       </c>
@@ -21613,7 +21662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="600" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J600">
         <v>22</v>
       </c>
@@ -21648,7 +21697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="601" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="601" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J601">
         <v>22</v>
       </c>
@@ -21683,7 +21732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="602" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J602">
         <v>20</v>
       </c>
@@ -21718,7 +21767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="603" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J603">
         <v>22</v>
       </c>
@@ -21753,7 +21802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="604" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J604">
         <v>22</v>
       </c>
@@ -21788,7 +21837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="605" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="605" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J605">
         <v>21</v>
       </c>
@@ -21823,7 +21872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="606" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="606" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J606">
         <v>22</v>
       </c>
@@ -21858,7 +21907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="607" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J607">
         <v>22</v>
       </c>
@@ -21893,7 +21942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="608" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J608">
         <v>23</v>
       </c>
@@ -21928,7 +21977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="609" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="609" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J609">
         <v>22</v>
       </c>
@@ -21963,7 +22012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="610" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J610">
         <v>22</v>
       </c>
@@ -21998,7 +22047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="611" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="611" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J611">
         <v>22</v>
       </c>
@@ -22033,7 +22082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="612" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="612" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J612">
         <v>21</v>
       </c>
@@ -22068,7 +22117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="613" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J613">
         <v>22</v>
       </c>
@@ -22103,7 +22152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="614" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="614" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J614">
         <v>22</v>
       </c>
@@ -22138,7 +22187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="615" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="615" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J615">
         <v>21</v>
       </c>
@@ -22173,7 +22222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="616" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J616">
         <v>21</v>
       </c>
@@ -22208,7 +22257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="617" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J617">
         <v>21</v>
       </c>
@@ -22243,7 +22292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="618" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="618" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J618">
         <v>22</v>
       </c>
@@ -22278,7 +22327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="619" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J619">
         <v>21</v>
       </c>
@@ -22313,7 +22362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="620" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="620" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J620">
         <v>22</v>
       </c>
@@ -22348,7 +22397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="621" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="621" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J621">
         <v>22</v>
       </c>
@@ -22383,7 +22432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="622" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="622" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J622">
         <v>21</v>
       </c>
@@ -22418,7 +22467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="623" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="623" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J623">
         <v>21</v>
       </c>
@@ -22453,7 +22502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="624" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="624" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J624">
         <v>21</v>
       </c>
@@ -22488,7 +22537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="625" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="625" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J625">
         <v>21</v>
       </c>
@@ -22523,7 +22572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="626" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="626" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J626">
         <v>22</v>
       </c>
@@ -22558,7 +22607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="627" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J627">
         <v>22</v>
       </c>
@@ -22593,7 +22642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="628" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="628" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J628">
         <v>20</v>
       </c>
@@ -22628,7 +22677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="629" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="629" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J629">
         <v>22</v>
       </c>
@@ -22663,7 +22712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="630" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="630" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J630">
         <v>21</v>
       </c>
@@ -22698,7 +22747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="631" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="631" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J631">
         <v>21</v>
       </c>
@@ -22733,7 +22782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="632" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="632" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J632">
         <v>22</v>
       </c>
@@ -22768,7 +22817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="633" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="633" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J633">
         <v>21</v>
       </c>
@@ -22803,7 +22852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="634" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J634">
         <v>22</v>
       </c>
@@ -22838,7 +22887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="635" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="635" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J635">
         <v>21</v>
       </c>
@@ -22873,7 +22922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="636" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="636" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J636">
         <v>23</v>
       </c>
@@ -22908,7 +22957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="637" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J637">
         <v>22</v>
       </c>
@@ -22943,7 +22992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="638" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="638" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J638">
         <v>22</v>
       </c>
@@ -22978,7 +23027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="639" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="639" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J639">
         <v>21</v>
       </c>
@@ -23013,7 +23062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="640" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J640">
         <v>21</v>
       </c>
@@ -23048,7 +23097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="641" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J641">
         <v>21</v>
       </c>
@@ -23083,7 +23132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="642" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="642" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J642">
         <v>21</v>
       </c>
@@ -23118,7 +23167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="643" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="643" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J643">
         <v>22</v>
       </c>
@@ -23153,7 +23202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="644" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J644">
         <v>22</v>
       </c>
@@ -23188,7 +23237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="645" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J645">
         <v>20</v>
       </c>
@@ -23223,7 +23272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="646" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="646" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J646">
         <v>22</v>
       </c>
@@ -23258,7 +23307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="647" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J647">
         <v>21</v>
       </c>
@@ -23293,7 +23342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="648" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J648">
         <v>21</v>
       </c>
@@ -23328,7 +23377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="649" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J649">
         <v>21</v>
       </c>
@@ -23363,7 +23412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="650" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="650" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J650">
         <v>22</v>
       </c>
@@ -23398,7 +23447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="651" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="651" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J651">
         <v>21</v>
       </c>
@@ -23433,7 +23482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="652" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="652" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J652">
         <v>21</v>
       </c>
@@ -23468,7 +23517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="653" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="653" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J653">
         <v>21</v>
       </c>
@@ -23503,7 +23552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="654" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="654" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J654">
         <v>22</v>
       </c>
@@ -23538,7 +23587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="655" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J655">
         <v>22</v>
       </c>
@@ -23573,7 +23622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="656" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J656">
         <v>22</v>
       </c>
@@ -23608,7 +23657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="657" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J657">
         <v>23</v>
       </c>
@@ -23643,7 +23692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="658" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="658" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J658">
         <v>22</v>
       </c>
@@ -23678,7 +23727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="659" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="659" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J659">
         <v>22</v>
       </c>
@@ -23713,7 +23762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="660" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="660" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J660">
         <v>21</v>
       </c>
@@ -23748,7 +23797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="661" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J661">
         <v>21</v>
       </c>
@@ -23783,7 +23832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="662" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J662">
         <v>22</v>
       </c>
@@ -23818,7 +23867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="663" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="663" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J663">
         <v>23</v>
       </c>
@@ -23853,7 +23902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="664" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J664">
         <v>22</v>
       </c>
@@ -23888,7 +23937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="665" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J665">
         <v>22</v>
       </c>
@@ -23923,7 +23972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="666" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J666">
         <v>21</v>
       </c>
@@ -23958,7 +24007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="667" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J667">
         <v>22</v>
       </c>
@@ -23993,7 +24042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="668" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J668">
         <v>22</v>
       </c>
@@ -24028,7 +24077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="669" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J669">
         <v>21</v>
       </c>
@@ -24063,7 +24112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="670" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J670">
         <v>22</v>
       </c>
@@ -24098,7 +24147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="671" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="671" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J671">
         <v>21</v>
       </c>
@@ -24133,7 +24182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="672" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="672" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J672">
         <v>22</v>
       </c>
@@ -24168,7 +24217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="673" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="673" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J673">
         <v>21</v>
       </c>
@@ -24203,7 +24252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="674" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J674">
         <v>22</v>
       </c>
@@ -24238,7 +24287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="675" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="675" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J675">
         <v>22</v>
       </c>
@@ -24273,7 +24322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="676" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="676" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J676">
         <v>21</v>
       </c>
@@ -24308,7 +24357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="677" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="677" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J677">
         <v>21</v>
       </c>
@@ -24343,7 +24392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="678" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="678" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J678">
         <v>21</v>
       </c>
@@ -24378,7 +24427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="679" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="679" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J679">
         <v>21</v>
       </c>
@@ -24413,7 +24462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="680" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="680" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J680">
         <v>22</v>
       </c>
@@ -24448,7 +24497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="681" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J681">
         <v>21</v>
       </c>
@@ -24483,7 +24532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="682" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="682" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J682">
         <v>22</v>
       </c>
@@ -24518,7 +24567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="683" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="683" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J683">
         <v>21</v>
       </c>
@@ -24553,7 +24602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="684" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="684" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J684">
         <v>21</v>
       </c>
@@ -24588,7 +24637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="685" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="685" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J685">
         <v>21</v>
       </c>
@@ -24623,7 +24672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="686" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="686" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J686">
         <v>21</v>
       </c>
@@ -24658,7 +24707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="687" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="687" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J687">
         <v>21</v>
       </c>
@@ -24693,7 +24742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="688" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="688" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J688">
         <v>22</v>
       </c>
@@ -24728,7 +24777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="689" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="689" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J689">
         <v>22</v>
       </c>
@@ -24763,7 +24812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="690" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="690" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J690">
         <v>22</v>
       </c>
@@ -24798,7 +24847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="691" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="691" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J691">
         <v>21</v>
       </c>
@@ -24833,7 +24882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="692" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="692" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J692">
         <v>22</v>
       </c>
@@ -24868,7 +24917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="693" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="693" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J693">
         <v>22</v>
       </c>
@@ -24903,7 +24952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="694" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="694" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J694">
         <v>22</v>
       </c>
@@ -24938,7 +24987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="695" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="695" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J695">
         <v>21</v>
       </c>
@@ -24973,7 +25022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="696" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="696" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J696">
         <v>22</v>
       </c>
@@ -25008,7 +25057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="697" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="697" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J697">
         <v>21</v>
       </c>
@@ -25043,7 +25092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="698" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="698" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J698">
         <v>20</v>
       </c>
@@ -25078,7 +25127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="699" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="699" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J699">
         <v>21</v>
       </c>
@@ -25113,7 +25162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="700" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="700" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J700">
         <v>22</v>
       </c>
@@ -25148,7 +25197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="701" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="701" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J701">
         <v>21</v>
       </c>
@@ -25183,7 +25232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="702" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J702">
         <v>22</v>
       </c>
@@ -25218,7 +25267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="703" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="703" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J703">
         <v>22</v>
       </c>
@@ -25253,7 +25302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="704" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="704" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J704">
         <v>22</v>
       </c>
@@ -25288,7 +25337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="705" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="705" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J705">
         <v>21</v>
       </c>
@@ -25323,7 +25372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="706" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="706" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J706">
         <v>21</v>
       </c>
@@ -25358,7 +25407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="707" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="707" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J707">
         <v>21</v>
       </c>
@@ -25393,7 +25442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="708" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="708" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J708">
         <v>21</v>
       </c>
@@ -25428,7 +25477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="709" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="709" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J709">
         <v>22</v>
       </c>
@@ -25463,7 +25512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="710" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="710" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J710">
         <v>21</v>
       </c>
@@ -25498,7 +25547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="711" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="711" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J711">
         <v>22</v>
       </c>
@@ -25533,7 +25582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="712" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="712" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J712">
         <v>21</v>
       </c>
@@ -25568,7 +25617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="713" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="713" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J713">
         <v>22</v>
       </c>
@@ -25603,7 +25652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="714" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="714" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J714">
         <v>24</v>
       </c>
@@ -25638,7 +25687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="715" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="715" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J715">
         <v>21</v>
       </c>
@@ -25673,7 +25722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="716" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="716" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J716">
         <v>22</v>
       </c>
@@ -25708,7 +25757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="717" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="717" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J717">
         <v>23</v>
       </c>
@@ -25743,7 +25792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="718" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J718">
         <v>21</v>
       </c>
@@ -25778,7 +25827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="719" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="719" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J719">
         <v>22</v>
       </c>
@@ -25813,7 +25862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="720" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="720" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J720">
         <v>21</v>
       </c>
@@ -25848,7 +25897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="721" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="721" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J721">
         <v>22</v>
       </c>
@@ -25883,7 +25932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="722" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="722" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J722">
         <v>22</v>
       </c>
@@ -25918,7 +25967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="723" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="723" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J723">
         <v>21</v>
       </c>
@@ -25953,7 +26002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="724" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="724" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J724">
         <v>21</v>
       </c>
@@ -25988,7 +26037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="725" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="725" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J725">
         <v>20</v>
       </c>
@@ -26023,7 +26072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="726" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="726" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J726">
         <v>21</v>
       </c>
@@ -26058,7 +26107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="727" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="727" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J727">
         <v>21</v>
       </c>
@@ -26093,7 +26142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="728" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="728" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J728">
         <v>21</v>
       </c>
@@ -26128,7 +26177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="729" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="729" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J729">
         <v>23</v>
       </c>
@@ -26163,7 +26212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="730" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="730" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J730">
         <v>22</v>
       </c>
@@ -26198,7 +26247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="731" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="731" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J731">
         <v>23</v>
       </c>
@@ -26233,7 +26282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="732" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="732" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J732">
         <v>21</v>
       </c>
@@ -26268,7 +26317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="733" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="733" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J733">
         <v>21</v>
       </c>
@@ -26303,7 +26352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="734" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="734" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J734">
         <v>21</v>
       </c>
@@ -26338,7 +26387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="735" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="735" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J735">
         <v>21</v>
       </c>
@@ -26373,7 +26422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="736" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="736" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J736">
         <v>21</v>
       </c>
@@ -26408,7 +26457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="737" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="737" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J737">
         <v>21</v>
       </c>
@@ -26443,7 +26492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="738" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="738" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J738">
         <v>21</v>
       </c>
@@ -26478,7 +26527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="739" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="739" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J739">
         <v>22</v>
       </c>
@@ -26513,7 +26562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="740" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="740" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J740">
         <v>22</v>
       </c>
@@ -26548,7 +26597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="741" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="741" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J741">
         <v>21</v>
       </c>
@@ -26583,7 +26632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="742" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="742" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J742">
         <v>22</v>
       </c>
@@ -26618,7 +26667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="743" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="743" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J743">
         <v>22</v>
       </c>
@@ -26653,7 +26702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="744" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="744" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J744">
         <v>21</v>
       </c>
@@ -26688,7 +26737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="745" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="745" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J745">
         <v>21</v>
       </c>
@@ -26723,7 +26772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="746" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="746" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J746">
         <v>22</v>
       </c>
@@ -26758,7 +26807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="747" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="747" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J747">
         <v>22</v>
       </c>
@@ -26793,7 +26842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="748" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="748" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J748">
         <v>21</v>
       </c>
@@ -26828,7 +26877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="749" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="749" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J749">
         <v>23</v>
       </c>
@@ -26863,7 +26912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="750" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="750" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J750">
         <v>22</v>
       </c>
@@ -26898,7 +26947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="751" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="751" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J751">
         <v>22</v>
       </c>
@@ -26933,7 +26982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="752" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="752" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J752">
         <v>22</v>
       </c>
@@ -26968,7 +27017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="753" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="753" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J753">
         <v>21</v>
       </c>
@@ -27003,7 +27052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="754" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="754" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J754">
         <v>21</v>
       </c>
@@ -27038,7 +27087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="755" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="755" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J755">
         <v>22</v>
       </c>
@@ -27073,7 +27122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="756" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="756" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J756">
         <v>22</v>
       </c>
@@ -27108,7 +27157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="757" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="757" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J757">
         <v>22</v>
       </c>
@@ -27143,7 +27192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="758" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="758" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J758">
         <v>21</v>
       </c>
@@ -27178,7 +27227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="759" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="759" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J759">
         <v>21</v>
       </c>
@@ -27213,7 +27262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="760" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="760" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J760">
         <v>22</v>
       </c>
@@ -27248,7 +27297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="761" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="761" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J761">
         <v>22</v>
       </c>
@@ -27283,7 +27332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="762" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="762" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J762">
         <v>21</v>
       </c>
@@ -27318,7 +27367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="763" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="763" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J763">
         <v>22</v>
       </c>
@@ -27353,7 +27402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="764" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="764" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J764">
         <v>21</v>
       </c>
@@ -27388,7 +27437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="765" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="765" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J765">
         <v>21</v>
       </c>
@@ -27423,7 +27472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="766" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="766" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J766">
         <v>22</v>
       </c>
@@ -27458,7 +27507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="767" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="767" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J767">
         <v>22</v>
       </c>
@@ -27493,7 +27542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="768" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="768" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J768">
         <v>21</v>
       </c>
@@ -27528,7 +27577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="769" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="769" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J769">
         <v>22</v>
       </c>
@@ -27563,7 +27612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="770" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="770" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J770">
         <v>21</v>
       </c>
@@ -27598,7 +27647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="771" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="771" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J771">
         <v>22</v>
       </c>
@@ -27633,7 +27682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="772" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="772" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J772">
         <v>22</v>
       </c>
@@ -27668,7 +27717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="773" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="773" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J773">
         <v>21</v>
       </c>
@@ -27703,7 +27752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="774" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="774" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J774">
         <v>22</v>
       </c>
@@ -27738,7 +27787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="775" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="775" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J775">
         <v>22</v>
       </c>
@@ -27773,7 +27822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="776" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="776" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J776">
         <v>22</v>
       </c>
@@ -27808,7 +27857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="777" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="777" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J777">
         <v>20</v>
       </c>
@@ -27843,7 +27892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="778" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="778" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J778">
         <v>21</v>
       </c>
@@ -27878,7 +27927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="779" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="779" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J779">
         <v>21</v>
       </c>
@@ -27913,7 +27962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="780" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="780" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J780">
         <v>21</v>
       </c>
@@ -27948,7 +27997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="781" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="781" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J781">
         <v>23</v>
       </c>
@@ -27983,7 +28032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="782" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="782" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J782">
         <v>21</v>
       </c>
@@ -28018,7 +28067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="783" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="783" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J783">
         <v>22</v>
       </c>
@@ -28053,7 +28102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="784" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="784" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J784">
         <v>22</v>
       </c>
@@ -28088,7 +28137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="785" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="785" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J785">
         <v>21</v>
       </c>
@@ -28123,7 +28172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="786" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="786" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J786">
         <v>22</v>
       </c>
@@ -28158,7 +28207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="787" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="787" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J787">
         <v>21</v>
       </c>
@@ -28193,7 +28242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="788" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="788" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J788">
         <v>21</v>
       </c>
@@ -28228,7 +28277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="789" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="789" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J789">
         <v>21</v>
       </c>
@@ -28263,7 +28312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="790" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="790" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J790">
         <v>21</v>
       </c>
@@ -28298,7 +28347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="791" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="791" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J791">
         <v>22</v>
       </c>
@@ -28333,7 +28382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="792" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="792" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J792">
         <v>20</v>
       </c>
@@ -28368,7 +28417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="793" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="793" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J793">
         <v>22</v>
       </c>
@@ -28403,7 +28452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="794" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="794" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J794">
         <v>22</v>
       </c>
@@ -28438,7 +28487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="795" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="795" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J795">
         <v>21</v>
       </c>
@@ -28473,7 +28522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="796" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="796" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J796">
         <v>21</v>
       </c>
@@ -28508,7 +28557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="797" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="797" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J797">
         <v>22</v>
       </c>
@@ -28543,7 +28592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="798" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="798" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J798">
         <v>23</v>
       </c>
@@ -28578,7 +28627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="799" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="799" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J799">
         <v>21</v>
       </c>
@@ -28613,7 +28662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="800" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="800" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J800">
         <v>22</v>
       </c>
@@ -28648,7 +28697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="801" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="801" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J801">
         <v>21</v>
       </c>
@@ -28683,7 +28732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="802" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="802" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J802">
         <v>20</v>
       </c>
@@ -28718,7 +28767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="803" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="803" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J803">
         <v>23</v>
       </c>
@@ -28753,7 +28802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="804" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="804" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J804">
         <v>21</v>
       </c>
@@ -28788,7 +28837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="805" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="805" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J805">
         <v>23</v>
       </c>
@@ -28823,7 +28872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="806" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="806" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J806">
         <v>22</v>
       </c>
@@ -28858,7 +28907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="807" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="807" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J807">
         <v>21</v>
       </c>
@@ -28893,7 +28942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="808" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="808" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J808">
         <v>22</v>
       </c>
@@ -28928,7 +28977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="809" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="809" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J809">
         <v>21</v>
       </c>
@@ -28963,7 +29012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="810" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="810" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J810">
         <v>22</v>
       </c>
@@ -28998,7 +29047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="811" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="811" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J811">
         <v>21</v>
       </c>
@@ -29033,7 +29082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="812" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="812" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J812">
         <v>21</v>
       </c>
@@ -29068,7 +29117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="813" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="813" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J813">
         <v>22</v>
       </c>
@@ -29103,7 +29152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="814" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="814" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J814">
         <v>21</v>
       </c>
@@ -29138,7 +29187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="815" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="815" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J815">
         <v>21</v>
       </c>
@@ -29173,7 +29222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="816" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="816" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J816">
         <v>21</v>
       </c>
@@ -29208,7 +29257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="817" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="817" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J817">
         <v>21</v>
       </c>
@@ -29243,7 +29292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="818" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="818" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J818">
         <v>22</v>
       </c>
@@ -29278,7 +29327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="819" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="819" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J819">
         <v>21</v>
       </c>
@@ -29313,7 +29362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="820" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="820" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J820">
         <v>21</v>
       </c>
@@ -29348,7 +29397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="821" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="821" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J821">
         <v>22</v>
       </c>
@@ -29383,7 +29432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="822" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="822" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J822">
         <v>22</v>
       </c>
@@ -29418,7 +29467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="823" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="823" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J823">
         <v>21</v>
       </c>
@@ -29453,7 +29502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="824" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="824" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J824">
         <v>21</v>
       </c>
@@ -29488,7 +29537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="825" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="825" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J825">
         <v>22</v>
       </c>
@@ -29523,7 +29572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="826" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="826" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J826">
         <v>21</v>
       </c>
@@ -29558,7 +29607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="827" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="827" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J827">
         <v>22</v>
       </c>
@@ -29593,7 +29642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="828" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="828" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J828">
         <v>22</v>
       </c>
@@ -29628,7 +29677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="829" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="829" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J829">
         <v>22</v>
       </c>
@@ -29663,7 +29712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="830" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="830" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J830">
         <v>21</v>
       </c>
@@ -29698,7 +29747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="831" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="831" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J831">
         <v>21</v>
       </c>
@@ -29733,7 +29782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="832" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="832" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J832">
         <v>22</v>
       </c>
@@ -29768,7 +29817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="833" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="833" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J833">
         <v>22</v>
       </c>
@@ -29803,7 +29852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="834" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="834" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J834">
         <v>22</v>
       </c>
@@ -29838,7 +29887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="835" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="835" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J835">
         <v>22</v>
       </c>
@@ -29873,7 +29922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="836" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="836" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J836">
         <v>22</v>
       </c>
@@ -29908,7 +29957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="837" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="837" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J837">
         <v>21</v>
       </c>
@@ -29943,7 +29992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="838" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="838" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J838">
         <v>22</v>
       </c>
@@ -29978,7 +30027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="839" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="839" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J839">
         <v>22</v>
       </c>
@@ -30013,7 +30062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="840" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="840" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J840">
         <v>22</v>
       </c>
@@ -30048,7 +30097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="841" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="841" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J841">
         <v>22</v>
       </c>
@@ -30083,7 +30132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="842" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="842" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J842">
         <v>21</v>
       </c>
@@ -30118,7 +30167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="843" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="843" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J843">
         <v>21</v>
       </c>
@@ -30153,7 +30202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="844" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="844" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J844">
         <v>21</v>
       </c>
@@ -30188,7 +30237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="845" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="845" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J845">
         <v>21</v>
       </c>
@@ -30223,7 +30272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="846" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="846" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J846">
         <v>21</v>
       </c>
@@ -30258,7 +30307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="847" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="847" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J847">
         <v>20</v>
       </c>
@@ -30293,7 +30342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="848" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="848" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J848">
         <v>23</v>
       </c>
@@ -30328,7 +30377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="849" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="849" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J849">
         <v>22</v>
       </c>
@@ -30363,7 +30412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="850" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="850" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J850">
         <v>21</v>
       </c>
@@ -30398,7 +30447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="851" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="851" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J851">
         <v>21</v>
       </c>
@@ -30433,7 +30482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="852" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="852" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J852">
         <v>22</v>
       </c>
@@ -30468,7 +30517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="853" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="853" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J853">
         <v>22</v>
       </c>
@@ -30503,7 +30552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="854" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="854" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J854">
         <v>21</v>
       </c>
@@ -30538,7 +30587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="855" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="855" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J855">
         <v>23</v>
       </c>
@@ -30573,7 +30622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="856" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="856" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J856">
         <v>20</v>
       </c>
@@ -30608,7 +30657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="857" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="857" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J857">
         <v>22</v>
       </c>
@@ -30643,7 +30692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="858" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="858" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J858">
         <v>21</v>
       </c>
@@ -30678,7 +30727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="859" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="859" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J859">
         <v>22</v>
       </c>
@@ -30713,7 +30762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="860" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="860" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J860">
         <v>22</v>
       </c>
@@ -30748,7 +30797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="861" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="861" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J861">
         <v>21</v>
       </c>
@@ -30783,7 +30832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="862" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="862" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J862">
         <v>21</v>
       </c>
@@ -30818,7 +30867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="863" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="863" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J863">
         <v>21</v>
       </c>
@@ -30853,7 +30902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="864" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="864" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J864">
         <v>21</v>
       </c>
@@ -30888,7 +30937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="865" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="865" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J865">
         <v>22</v>
       </c>
@@ -30923,7 +30972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="866" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="866" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J866">
         <v>22</v>
       </c>
@@ -30958,7 +31007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="867" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="867" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J867">
         <v>22</v>
       </c>
@@ -30993,7 +31042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="868" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="868" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J868">
         <v>22</v>
       </c>
@@ -31028,7 +31077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="869" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="869" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J869">
         <v>21</v>
       </c>
@@ -31063,7 +31112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="870" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="870" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J870">
         <v>22</v>
       </c>
@@ -31098,7 +31147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="871" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="871" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J871">
         <v>22</v>
       </c>
@@ -31133,7 +31182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="872" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="872" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J872">
         <v>20</v>
       </c>
@@ -31168,7 +31217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="873" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="873" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J873">
         <v>21</v>
       </c>
@@ -31203,7 +31252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="874" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="874" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J874">
         <v>23</v>
       </c>
@@ -31238,7 +31287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="875" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="875" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J875">
         <v>20</v>
       </c>
@@ -31273,7 +31322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="876" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="876" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J876">
         <v>22</v>
       </c>
@@ -31308,7 +31357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="877" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="877" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J877">
         <v>21</v>
       </c>
@@ -31343,7 +31392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="878" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="878" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J878">
         <v>20</v>
       </c>
@@ -31378,7 +31427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="879" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="879" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J879">
         <v>22</v>
       </c>
@@ -31413,7 +31462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="880" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="880" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J880">
         <v>22</v>
       </c>
@@ -31448,7 +31497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="881" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="881" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J881">
         <v>21</v>
       </c>
@@ -31483,7 +31532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="882" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="882" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J882">
         <v>21</v>
       </c>
@@ -31518,7 +31567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="883" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="883" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J883">
         <v>22</v>
       </c>
@@ -31553,7 +31602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="884" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="884" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J884">
         <v>21</v>
       </c>
@@ -31588,7 +31637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="885" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="885" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J885">
         <v>22</v>
       </c>
@@ -31623,7 +31672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="886" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="886" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J886">
         <v>21</v>
       </c>
@@ -31658,7 +31707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="887" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="887" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J887">
         <v>21</v>
       </c>
@@ -31693,7 +31742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="888" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J888">
         <v>21</v>
       </c>
@@ -31728,7 +31777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="889" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="889" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J889">
         <v>22</v>
       </c>
@@ -31763,7 +31812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="890" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="890" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J890">
         <v>22</v>
       </c>
@@ -31798,7 +31847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="891" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="891" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J891">
         <v>21</v>
       </c>
@@ -31833,7 +31882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="892" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="892" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J892">
         <v>22</v>
       </c>
@@ -31868,7 +31917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="893" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="893" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J893">
         <v>21</v>
       </c>
@@ -31903,7 +31952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="894" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="894" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J894">
         <v>23</v>
       </c>
@@ -31938,7 +31987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="895" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="895" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J895">
         <v>22</v>
       </c>
@@ -31973,7 +32022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="896" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="896" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J896">
         <v>21</v>
       </c>
@@ -32008,7 +32057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="897" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="897" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J897">
         <v>21</v>
       </c>
@@ -32043,7 +32092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="898" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="898" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J898">
         <v>22</v>
       </c>
@@ -32078,7 +32127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="899" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="899" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J899">
         <v>22</v>
       </c>
@@ -32113,7 +32162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="900" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="900" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J900">
         <v>22</v>
       </c>
@@ -32148,7 +32197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="901" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="901" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J901">
         <v>22</v>
       </c>
@@ -32183,7 +32232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="902" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="902" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J902">
         <v>22</v>
       </c>
@@ -32218,7 +32267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="903" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="903" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J903">
         <v>22</v>
       </c>
@@ -32253,7 +32302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="904" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="904" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J904">
         <v>21</v>
       </c>
@@ -32288,7 +32337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="905" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="905" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J905">
         <v>21</v>
       </c>
@@ -32323,7 +32372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="906" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="906" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J906">
         <v>22</v>
       </c>
@@ -32358,7 +32407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="907" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="907" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J907">
         <v>21</v>
       </c>
@@ -32393,7 +32442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="908" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="908" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J908">
         <v>22</v>
       </c>
@@ -32428,7 +32477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="909" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="909" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J909">
         <v>22</v>
       </c>
@@ -32463,7 +32512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="910" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="910" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J910">
         <v>20</v>
       </c>
@@ -32498,7 +32547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="911" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="911" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J911">
         <v>21</v>
       </c>
@@ -32533,7 +32582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="912" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="912" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J912">
         <v>22</v>
       </c>
@@ -32568,7 +32617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="913" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="913" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J913">
         <v>22</v>
       </c>
@@ -32603,7 +32652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="914" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="914" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J914">
         <v>22</v>
       </c>
@@ -32638,7 +32687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="915" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="915" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J915">
         <v>21</v>
       </c>
@@ -32673,7 +32722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="916" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="916" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J916">
         <v>21</v>
       </c>
@@ -32708,7 +32757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="917" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="917" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J917">
         <v>21</v>
       </c>
@@ -32743,7 +32792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="918" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="918" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J918">
         <v>21</v>
       </c>
@@ -32778,7 +32827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="919" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="919" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J919">
         <v>22</v>
       </c>
@@ -32813,7 +32862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="920" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="920" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J920">
         <v>22</v>
       </c>
@@ -32848,7 +32897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="921" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="921" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J921">
         <v>22</v>
       </c>
@@ -32883,7 +32932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="922" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="922" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J922">
         <v>22</v>
       </c>
@@ -32918,7 +32967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="923" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="923" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J923">
         <v>21</v>
       </c>
@@ -32953,7 +33002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="924" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="924" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J924">
         <v>21</v>
       </c>
@@ -32988,7 +33037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="925" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="925" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J925">
         <v>21</v>
       </c>
@@ -33023,7 +33072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="926" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="926" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J926">
         <v>22</v>
       </c>
@@ -33058,7 +33107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="927" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="927" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J927">
         <v>21</v>
       </c>
@@ -33093,7 +33142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="928" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="928" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J928">
         <v>22</v>
       </c>
@@ -33128,7 +33177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="929" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="929" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J929">
         <v>21</v>
       </c>
@@ -33163,7 +33212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="930" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="930" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J930">
         <v>22</v>
       </c>
@@ -33198,7 +33247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="931" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="931" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J931">
         <v>21</v>
       </c>
@@ -33233,7 +33282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="932" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="932" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J932">
         <v>21</v>
       </c>
@@ -33268,7 +33317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="933" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="933" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J933">
         <v>21</v>
       </c>
@@ -33303,7 +33352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="934" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="934" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J934">
         <v>21</v>
       </c>
@@ -33338,7 +33387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="935" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="935" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J935">
         <v>21</v>
       </c>
@@ -33373,7 +33422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="936" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="936" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J936">
         <v>22</v>
       </c>
@@ -33408,7 +33457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="937" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="937" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J937">
         <v>22</v>
       </c>
@@ -33443,7 +33492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="938" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="938" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J938">
         <v>22</v>
       </c>
@@ -33478,7 +33527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="939" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="939" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J939">
         <v>22</v>
       </c>
@@ -33513,7 +33562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="940" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="940" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J940">
         <v>24</v>
       </c>
@@ -33548,7 +33597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="941" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="941" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J941">
         <v>22</v>
       </c>
@@ -33583,7 +33632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="942" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="942" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J942">
         <v>21</v>
       </c>
@@ -33618,7 +33667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="943" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="943" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J943">
         <v>22</v>
       </c>
@@ -33653,7 +33702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="944" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="944" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J944">
         <v>22</v>
       </c>
@@ -33688,7 +33737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="945" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="945" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J945">
         <v>22</v>
       </c>
@@ -33723,7 +33772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="946" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="946" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J946">
         <v>22</v>
       </c>
@@ -33758,7 +33807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="947" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="947" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J947">
         <v>22</v>
       </c>
@@ -33793,7 +33842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="948" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="948" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J948">
         <v>21</v>
       </c>
@@ -33828,7 +33877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="949" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="949" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J949">
         <v>21</v>
       </c>
@@ -33863,7 +33912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="950" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="950" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J950">
         <v>21</v>
       </c>
@@ -33898,7 +33947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="951" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="951" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J951">
         <v>21</v>
       </c>
@@ -33933,7 +33982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="952" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="952" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J952">
         <v>22</v>
       </c>
@@ -33968,7 +34017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="953" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="953" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J953">
         <v>23</v>
       </c>
@@ -34003,7 +34052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="954" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="954" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J954">
         <v>22</v>
       </c>
@@ -34038,7 +34087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="955" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="955" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J955">
         <v>23</v>
       </c>
@@ -34073,7 +34122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="956" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="956" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J956">
         <v>22</v>
       </c>
@@ -34108,7 +34157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="957" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="957" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J957">
         <v>21</v>
       </c>
@@ -34143,7 +34192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="958" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="958" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J958">
         <v>22</v>
       </c>
@@ -34178,7 +34227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="959" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="959" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J959">
         <v>22</v>
       </c>
@@ -34213,7 +34262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="960" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="960" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J960">
         <v>21</v>
       </c>
@@ -34248,7 +34297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="961" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="961" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J961">
         <v>22</v>
       </c>
@@ -34283,7 +34332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="962" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="962" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J962">
         <v>21</v>
       </c>
@@ -34318,7 +34367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="963" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="963" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J963">
         <v>22</v>
       </c>
@@ -34353,7 +34402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="964" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="964" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J964">
         <v>21</v>
       </c>
@@ -34388,7 +34437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="965" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="965" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J965">
         <v>21</v>
       </c>
@@ -34423,7 +34472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="966" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="966" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J966">
         <v>21</v>
       </c>
@@ -34458,7 +34507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="967" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="967" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J967">
         <v>21</v>
       </c>
@@ -34493,7 +34542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="968" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="968" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J968">
         <v>21</v>
       </c>
@@ -34528,7 +34577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="969" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="969" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J969">
         <v>22</v>
       </c>
@@ -34563,7 +34612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="970" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="970" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J970">
         <v>22</v>
       </c>
@@ -34598,7 +34647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="971" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="971" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J971">
         <v>21</v>
       </c>
@@ -34633,7 +34682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="972" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="972" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J972">
         <v>21</v>
       </c>
@@ -34668,7 +34717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="973" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="973" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J973">
         <v>21</v>
       </c>
@@ -34703,7 +34752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="974" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="974" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J974">
         <v>23</v>
       </c>
@@ -34738,7 +34787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="975" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="975" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J975">
         <v>21</v>
       </c>
@@ -34773,7 +34822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="976" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="976" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J976">
         <v>23</v>
       </c>
@@ -34808,7 +34857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="977" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="977" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J977">
         <v>21</v>
       </c>
@@ -34843,7 +34892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="978" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="978" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J978">
         <v>22</v>
       </c>
@@ -34878,7 +34927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="979" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="979" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J979">
         <v>22</v>
       </c>
@@ -34913,7 +34962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="980" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="980" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J980">
         <v>22</v>
       </c>
@@ -34948,7 +34997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="981" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="981" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J981">
         <v>22</v>
       </c>
@@ -34983,7 +35032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="982" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="982" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J982">
         <v>21</v>
       </c>
@@ -35018,7 +35067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="983" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="983" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J983">
         <v>23</v>
       </c>
@@ -35053,7 +35102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="984" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="984" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J984">
         <v>22</v>
       </c>
@@ -35088,7 +35137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="985" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="985" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J985">
         <v>23</v>
       </c>
@@ -35123,7 +35172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="986" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="986" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J986">
         <v>22</v>
       </c>
@@ -35158,7 +35207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="987" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="987" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J987">
         <v>21</v>
       </c>
@@ -35193,7 +35242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="988" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="988" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J988">
         <v>22</v>
       </c>
@@ -35228,7 +35277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="989" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="989" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J989">
         <v>22</v>
       </c>
@@ -35263,7 +35312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="990" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="990" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J990">
         <v>22</v>
       </c>
@@ -35298,7 +35347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="991" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="991" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J991">
         <v>23</v>
       </c>
@@ -35333,7 +35382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="992" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="992" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J992">
         <v>22</v>
       </c>
@@ -35368,7 +35417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="993" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="993" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J993">
         <v>22</v>
       </c>
@@ -35403,7 +35452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="994" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="994" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J994">
         <v>20</v>
       </c>
@@ -35438,7 +35487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="995" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="995" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J995">
         <v>23</v>
       </c>
@@ -35473,7 +35522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="996" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="996" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J996">
         <v>22</v>
       </c>
@@ -35508,7 +35557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="997" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="997" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J997">
         <v>21</v>
       </c>
@@ -35543,7 +35592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="998" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="998" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J998">
         <v>22</v>
       </c>
@@ -35578,7 +35627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="999" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="999" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J999">
         <v>21</v>
       </c>
@@ -35613,7 +35662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1000" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="1000" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J1000">
         <v>23</v>
       </c>
@@ -35648,7 +35697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1001" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="1001" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J1001">
         <v>22</v>
       </c>
@@ -35683,7 +35732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1002" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="1002" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J1002">
         <v>23</v>
       </c>
@@ -35718,7 +35767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1003" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="1003" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J1003">
         <v>22</v>
       </c>
@@ -35753,7 +35802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1004" spans="10:40" x14ac:dyDescent="0.3">
+    <row r="1004" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J1004">
         <v>22</v>
       </c>
@@ -35792,4 +35841,816 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C43268-D079-4D24-AAA9-ACFE1D154649}">
+  <dimension ref="A1:N100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <f>SUM(F7:F16)/COUNT(F7:F16)</f>
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <f>SUM(G7:G16)/COUNT(G7:G16)</f>
+        <v>1054165.3999999999</v>
+      </c>
+      <c r="L4">
+        <f>MIN(I4,I18,I32,I46,I60,I74,I88)</f>
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <f>MIN(J4,J18,J32,J46,J60,J74,J88)</f>
+        <v>1054165.3999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1070918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1071532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>1031823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>1074663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>1046076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>1027436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>1038897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>1038102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>1071010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>1071197</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <f>SUM(F21:F30)/COUNT(F21:F30)</f>
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <f>SUM(G21:G30)/COUNT(G21:G30)</f>
+        <v>1204276.8999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>1219009</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>1295872</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>1184701</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>1186263</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>1198255</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>1182665</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>1190328</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>1190745</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>1195108</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>1199823</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <f>SUM(F35:F44)/COUNT(F35:F44)</f>
+        <v>19</v>
+      </c>
+      <c r="J32">
+        <f>SUM(G35:G44)/COUNT(G35:G44)</f>
+        <v>1331786.3</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <v>1304847</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>1369752</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>1348039</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>1326475</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>1317963</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>1329986</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>1342263</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>1329706</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>19</v>
+      </c>
+      <c r="G43">
+        <v>1313453</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>1335379</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <f>SUM(F49:F58)/COUNT(F49:F58)</f>
+        <v>19</v>
+      </c>
+      <c r="J46">
+        <f>SUM(G49:G58)/COUNT(G49:G58)</f>
+        <v>1464954</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>1472363</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>1461153</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>1469330</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>1486262</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>19</v>
+      </c>
+      <c r="G53">
+        <v>1447025</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>19</v>
+      </c>
+      <c r="G54">
+        <v>1469408</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>1422219</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>19</v>
+      </c>
+      <c r="G56">
+        <v>1482867</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>1486732</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>19</v>
+      </c>
+      <c r="G58">
+        <v>1452181</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60">
+        <v>125</v>
+      </c>
+      <c r="I60">
+        <f>SUM(F63:F72)/COUNT(F63:F72)</f>
+        <v>19</v>
+      </c>
+      <c r="J60">
+        <f>SUM(G63:G72)/COUNT(G63:G72)</f>
+        <v>1615090</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <v>1644289</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>19</v>
+      </c>
+      <c r="G64">
+        <v>1577314</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>19</v>
+      </c>
+      <c r="G65">
+        <v>1595805</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>19</v>
+      </c>
+      <c r="G66">
+        <v>1662279</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>19</v>
+      </c>
+      <c r="G67">
+        <v>1598689</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>1637750</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <v>1634375</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>19</v>
+      </c>
+      <c r="G70">
+        <v>1569376</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>19</v>
+      </c>
+      <c r="G71">
+        <v>1566083</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>19</v>
+      </c>
+      <c r="G72">
+        <v>1664940</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74">
+        <v>150</v>
+      </c>
+      <c r="I74">
+        <f>SUM(F77:F86)/COUNT(F77:F86)</f>
+        <v>19</v>
+      </c>
+      <c r="J74">
+        <f>SUM(G77:G86)/COUNT(G77:G86)</f>
+        <v>1779975.2</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>19</v>
+      </c>
+      <c r="G77">
+        <v>1742312</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>19</v>
+      </c>
+      <c r="G78">
+        <v>1800988</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>19</v>
+      </c>
+      <c r="G79">
+        <v>1756508</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>19</v>
+      </c>
+      <c r="G80">
+        <v>1747353</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>19</v>
+      </c>
+      <c r="G81">
+        <v>1788050</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>19</v>
+      </c>
+      <c r="G82">
+        <v>1735124</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>19</v>
+      </c>
+      <c r="G83">
+        <v>1768226</v>
+      </c>
+    </row>
+    <row r="84" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>19</v>
+      </c>
+      <c r="G84">
+        <v>1767071</v>
+      </c>
+    </row>
+    <row r="85" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>19</v>
+      </c>
+      <c r="G85">
+        <v>1887270</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>19</v>
+      </c>
+      <c r="G86">
+        <v>1806850</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88">
+        <v>175</v>
+      </c>
+      <c r="I88">
+        <f>SUM(F91:F100)/COUNT(F91:F100)</f>
+        <v>19</v>
+      </c>
+      <c r="J88">
+        <f>SUM(G91:G100)/COUNT(G91:G100)</f>
+        <v>2006390.7</v>
+      </c>
+    </row>
+    <row r="90" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>19</v>
+      </c>
+      <c r="G91">
+        <v>1904889</v>
+      </c>
+    </row>
+    <row r="92" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>19</v>
+      </c>
+      <c r="G92">
+        <v>1896539</v>
+      </c>
+    </row>
+    <row r="93" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>19</v>
+      </c>
+      <c r="G93">
+        <v>2145431</v>
+      </c>
+    </row>
+    <row r="94" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>19</v>
+      </c>
+      <c r="G94">
+        <v>2136614</v>
+      </c>
+    </row>
+    <row r="95" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>19</v>
+      </c>
+      <c r="G95">
+        <v>2041472</v>
+      </c>
+    </row>
+    <row r="96" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>19</v>
+      </c>
+      <c r="G96">
+        <v>2109276</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>19</v>
+      </c>
+      <c r="G97">
+        <v>1967092</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>19</v>
+      </c>
+      <c r="G98">
+        <v>1849816</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>19</v>
+      </c>
+      <c r="G99">
+        <v>1961515</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>19</v>
+      </c>
+      <c r="G100">
+        <v>2051263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>